--- a/mathTransformed/HMPSTT_(2016-06-22)_35_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-06-22)_35_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. High School NellikeriKumta</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Shree Gurudas High School ManjaguniAnkola</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S KonarBhatkal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S MallapuraHonnavar</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H P S HeroorBhatkal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H P S BetkoorBhatkal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. MHPS MadanageriKumta</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -676,6 +716,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>RajarajeshwariHigh School ShirakurAnkola</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -703,6 +748,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>NES Honavar</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -730,6 +780,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Govt. High School TengingundiBhatkal</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Uttara Kannda</t>
         </is>
       </c>
@@ -759,6 +814,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Govt. High School HaladakattaSiddapur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -786,6 +846,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S IdagunjiHonavar</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -813,6 +878,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Gibb High School Kumta</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -840,6 +910,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G U P S KodsulBhatkal</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Uttara Kannada</t>
         </is>
       </c>
@@ -867,6 +942,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S JalavalakarkiHonnavar</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -896,6 +976,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>N G V V High SchoolDodmaneSiddapura</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -923,6 +1008,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H P S ShiralagiSiddapur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -950,6 +1040,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S AsuJoida</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -977,6 +1072,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>S K B S S KansurSiddapur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -1003,7 +1103,8 @@
           <t>ASHOKA M A</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Chikkamagaluru</t>
         </is>
@@ -1034,6 +1135,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G J C (High School Section ) ChowlahiriyurKadur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1061,6 +1167,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>M D R S KuppaluKadur</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1088,6 +1199,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G J C Kadur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Chikkkamagalur</t>
         </is>
       </c>
@@ -1119,6 +1235,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Sri Prabhukumara High SchoolKalkereKadur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1146,6 +1267,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>S K C P U CollegeSingatagereKadur</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1173,6 +1299,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>S D R H S AntharagattaKadur</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1200,6 +1331,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. Urdu High SchoolKadur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Chikkamagalur</t>
         </is>
       </c>
@@ -1227,6 +1363,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G J C High School PanchanahalliKadur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1256,6 +1397,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S G YaradakereKadur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Chikkamagallur</t>
         </is>
       </c>
@@ -1283,6 +1429,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S GadihalliTarikere</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1312,6 +1463,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S Y MallapuraKadur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1341,6 +1497,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>S S G J C AjjampuraTarikere</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1368,6 +1529,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Grama Jyothi High School LakkavalliTarikere</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1395,6 +1561,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S GadihallyTarikere</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1423,6 +1594,11 @@
         </is>
       </c>
       <c r="F37" t="inlineStr">
+        <is>
+          <t>S S V R High SchoolP KodihalliKadur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>Chikkamagaluru</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-06-22)_35_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-06-22)_35_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Uttara Kannda</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1103,10 +1103,9 @@
           <t>ASHOKA M A</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1139,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1171,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1203,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chikkkamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1239,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1271,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1335,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chikkamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1367,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1401,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chikkamagallur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1433,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1467,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1501,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1533,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1565,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1599,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
